--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_20 P_54 数组_一维数组.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_20 P_54 数组_一维数组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>数组元素类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>这两个看似结果相同，其实执行动作是有差异的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个地址之间都差4个字节，因为int是4个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就是一维数组的规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果元素给的少了，会用0补足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样依次写出元素，在二维数组中是可行的，可以正常排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种分组也可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维数组的行数可以省略，但列数不能省略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,6 +758,500 @@
         <a:xfrm>
           <a:off x="2257425" y="23545800"/>
           <a:ext cx="14600000" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27931</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>56975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="29860875"/>
+          <a:ext cx="5152381" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56458</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>132763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="29213175"/>
+          <a:ext cx="5533333" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236976</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>132961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="36280725"/>
+          <a:ext cx="9190476" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>484631</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>85132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="34775775"/>
+          <a:ext cx="9152381" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284612</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>104248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="40462200"/>
+          <a:ext cx="9104762" cy="4219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503823</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>18619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="45262800"/>
+          <a:ext cx="8019048" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>389196</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>114061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="46205775"/>
+          <a:ext cx="10628571" cy="1914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>655331</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>123282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="48929925"/>
+          <a:ext cx="15152381" cy="4342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132495</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>171148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="53816250"/>
+          <a:ext cx="6838095" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>456299</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>75912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11763375" y="53835300"/>
+          <a:ext cx="7209524" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608232</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>27759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="56769000"/>
+          <a:ext cx="10942857" cy="6523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228058</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>9445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15782925" y="59378850"/>
+          <a:ext cx="4333333" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>389190</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>66080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="63541275"/>
+          <a:ext cx="10676190" cy="4761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K8:U107"/>
+  <dimension ref="J8:Z352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="AB129" sqref="AB129"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="W376" sqref="W376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,6 +1593,36 @@
         <v>6</v>
       </c>
     </row>
+    <row r="234" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="26:26" x14ac:dyDescent="0.15">
+      <c r="Z290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="20:25" x14ac:dyDescent="0.15">
+      <c r="T344" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="20:25" x14ac:dyDescent="0.15">
+      <c r="Y352" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
